--- a/data/trans_camb/P28A_3_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P28A_3_R-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-19,66</t>
+          <t>-5,98</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-22,03</t>
+          <t>-9,45</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-29,75</t>
+          <t>-11,99</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-16,96</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-27,0</t>
+          <t>-1,59</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-36,7</t>
+          <t>-6,59</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-19,79</t>
+          <t>-2,69</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-23,53</t>
+          <t>-5,32</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-32,78</t>
+          <t>-9,17</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-39,21; 1,24</t>
+          <t>-19,57; 7,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-40,29; -3,12</t>
+          <t>-22,6; 0,44</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-46,16; -15,13</t>
+          <t>-25,06; -3,87</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-43,56; 10,09</t>
+          <t>-10,85; 10,76</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-50,83; -4,35</t>
+          <t>-12,43; 8,32</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-57,65; -13,63</t>
+          <t>-16,8; 0,83</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-35,86; -4,03</t>
+          <t>-11,21; 5,14</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-37,79; -10,04</t>
+          <t>-13,3; 2,94</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-46,31; -20,82</t>
+          <t>-16,84; -2,8</t>
         </is>
       </c>
     </row>
@@ -738,12 +738,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-66,09%</t>
+          <t>-49,9%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-74,06%</t>
+          <t>-78,82%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -753,32 +753,32 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-37,45%</t>
+          <t>2,56%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-59,62%</t>
+          <t>-15,55%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-81,04%</t>
+          <t>-64,52%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-55,14%</t>
+          <t>-24,37%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-65,55%</t>
+          <t>-48,21%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-91,31%</t>
+          <t>-83,03%</t>
         </is>
       </c>
     </row>
@@ -791,12 +791,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-93,18; 17,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-94,82; 2,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -806,32 +806,32 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-76,29; 35,39</t>
+          <t>-76,75; 214,59</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-84,12; -11,67</t>
+          <t>-80,77; 156,35</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-95,1; -28,4</t>
+          <t>-100,0; 59,34</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-82,41; -12,11</t>
+          <t>-70,43; 91,44</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-85,23; -35,79</t>
+          <t>-82,99; 51,33</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-97,96; -73,22</t>
+          <t>-100,0; -28,47</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-10,02</t>
+          <t>-1,81</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-17,37</t>
+          <t>-5,04</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-23,75</t>
+          <t>-6,08</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-13,54</t>
+          <t>-4,66</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-16,31</t>
+          <t>-3,52</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-18,34</t>
+          <t>-5,65</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-11,69</t>
+          <t>-3,29</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-16,86</t>
+          <t>-4,27</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-21,24</t>
+          <t>-5,85</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-24,5; 5,31</t>
+          <t>-8,34; 5,48</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-30,75; -4,32</t>
+          <t>-11,57; 1,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-35,75; -11,66</t>
+          <t>-12,21; -0,32</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-26,0; -1,26</t>
+          <t>-10,04; 0,62</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-28,37; -6,44</t>
+          <t>-8,8; 2,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-30,32; -7,03</t>
+          <t>-10,9; -0,93</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-21,52; -1,13</t>
+          <t>-7,57; 1,31</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-24,86; -6,85</t>
+          <t>-8,52; -0,09</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-29,14; -12,77</t>
+          <t>-9,62; -1,54</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-31,24%</t>
+          <t>-17,88%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-54,15%</t>
+          <t>-49,65%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-74,02%</t>
+          <t>-59,9%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-42,48%</t>
+          <t>-49,15%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-51,18%</t>
+          <t>-37,16%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-57,56%</t>
+          <t>-59,64%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-36,55%</t>
+          <t>-33,61%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-52,73%</t>
+          <t>-43,53%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-66,4%</t>
+          <t>-59,69%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-61,38; 21,42</t>
+          <t>-62,89; 83,83</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-75,79; -16,3</t>
+          <t>-82,36; 27,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-88,06; -46,95</t>
+          <t>-89,07; 5,67</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-67,09; 0,01</t>
+          <t>-78,68; 16,08</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-71,54; -21,0</t>
+          <t>-71,29; 35,75</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-76,8; -24,72</t>
+          <t>-84,67; -5,16</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-59,04; -2,87</t>
+          <t>-61,94; 21,11</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-67,92; -25,3</t>
+          <t>-67,99; 1,48</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-78,52; -45,89</t>
+          <t>-79,97; -19,63</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-12,42</t>
+          <t>-4,13</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-16,99</t>
+          <t>-4,31</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-17,26</t>
+          <t>-5,22</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-11,06</t>
+          <t>-2,18</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-21,29</t>
+          <t>-4,52</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-23,27</t>
+          <t>-6,82</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-11,56</t>
+          <t>-3,03</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-19,71</t>
+          <t>-4,44</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-20,96</t>
+          <t>-6,12</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-29,45; 7,22</t>
+          <t>-9,14; -0,09</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-33,58; -2,01</t>
+          <t>-9,52; -0,47</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-34,53; -1,55</t>
+          <t>-10,31; -1,17</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-27,92; 4,59</t>
+          <t>-9,2; 3,41</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-36,04; -7,31</t>
+          <t>-10,84; 0,37</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-37,57; -9,24</t>
+          <t>-13,27; -2,42</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-23,23; 0,75</t>
+          <t>-7,11; 0,59</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-31,16; -10,38</t>
+          <t>-8,37; -1,0</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-32,39; -11,69</t>
+          <t>-10,08; -3,13</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-50,88%</t>
+          <t>-70,52%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-69,59%</t>
+          <t>-73,67%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-70,67%</t>
+          <t>-89,25%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-32,02%</t>
+          <t>-26,4%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-61,65%</t>
+          <t>-54,63%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-67,38%</t>
+          <t>-82,34%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-37,78%</t>
+          <t>-42,02%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-64,39%</t>
+          <t>-61,71%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-68,47%</t>
+          <t>-84,99%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-86,59; 70,25</t>
+          <t>-100,0; 34,86</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-91,34; 14,3</t>
+          <t>-100,0; 38,3</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-94,6; 5,3</t>
+          <t>-100,0; 49,81</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-64,83; 19,0</t>
+          <t>-70,43; 70,87</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-82,33; -25,83</t>
+          <t>-84,67; 37,54</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-86,19; -33,41</t>
+          <t>-95,49; -26,77</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-63,55; 4,17</t>
+          <t>-74,31; 18,9</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-81,24; -39,34</t>
+          <t>-84,8; -10,85</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-84,64; -42,68</t>
+          <t>-96,29; -55,17</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-12,44</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-18,22</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-23,67</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-13,16</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-19,25</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-22,26</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-12,91</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-18,76</t>
+          <t>—</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-23,12</t>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-22,11; -1,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-27,09; -8,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-31,63; -14,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-22,35; -4,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-27,04; -10,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-30,59; -14,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-20,13; -5,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-24,46; -12,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-28,68; -16,93</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-41,65%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-60,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-79,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-38,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-56,06%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-64,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-40,15%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-58,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-71,89%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,58 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-62,51; -4,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-75,43; -33,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-89,86; -60,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-56,54; -13,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-69,68; -36,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-77,97; -48,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-56,8; -20,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-68,56; -43,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-80,16; -59,48</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-3,25</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-5,34</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-6,49</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-2,96</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-3,66</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-6,22</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-3,09</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-4,46</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-6,36</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-7,31; 0,68</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-9,17; -1,84</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-10,11; -3,07</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-6,82; 0,72</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-7,8; -0,25</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-9,98; -3,0</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-6,1; -0,34</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-7,26; -1,75</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-9,0; -3,88</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-36,99%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-60,84%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-74,01%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-32,55%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-40,3%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-68,54%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-34,56%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-49,92%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-71,19%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-66,7; 11,84</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-81,23; -20,81</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-90,2; -38,96</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-60,12; 12,14</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-68,12; 0,6</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-85,61; -38,87</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-56,04; -2,36</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-68,07; -21,9</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-83,29; -49,96</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
